--- a/Assets/Editor/Excel/blockstage.xlsx
+++ b/Assets/Editor/Excel/blockstage.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\block\block2\Assets\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\block\block2\Assets\Editor\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF6B1927-B00B-4981-940B-2682AC5AE2A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD923A41-1500-47B5-9175-7B9E1ACEA64B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="19" xr2:uid="{BD46CB91-CAB7-47A3-ABB8-3EC07075F154}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="21" xr2:uid="{BD46CB91-CAB7-47A3-ABB8-3EC07075F154}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,6 +34,7 @@
     <sheet name="2-7" sheetId="23" r:id="rId19"/>
     <sheet name="2-8「うえへ」" sheetId="27" r:id="rId20"/>
     <sheet name="3-1" sheetId="24" r:id="rId21"/>
+    <sheet name="3-2" sheetId="28" r:id="rId22"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -78,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2204" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2259" uniqueCount="50">
   <si>
     <t>奈落</t>
     <rPh sb="0" eb="2">
@@ -6481,7 +6482,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FA0276E-2FDB-42D6-81EE-1F22FC8CC949}">
   <dimension ref="A1:AH31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+    <sheetView zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
       <selection activeCell="AA29" sqref="AA29"/>
     </sheetView>
   </sheetViews>
@@ -7016,7 +7017,7 @@
   <dimension ref="A1:AJ19"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB15" sqref="AB15:AH18"/>
+      <selection activeCell="AE19" sqref="AE19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.5" defaultRowHeight="28.35" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -7875,6 +7876,284 @@
       <c r="D17" s="21" cm="1">
         <f t="array" aca="1" ref="D17" ca="1">SUMPRODUCT((仕様!$AK$12=$A$1:INDIRECT($C18))*COLUMN($A$1:INDIRECT($C18)))</f>
         <v>29</v>
+      </c>
+      <c r="F17" s="30"/>
+      <c r="G17" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" t="s">
+        <v>1</v>
+      </c>
+      <c r="J17" s="6"/>
+      <c r="K17" t="s">
+        <v>2</v>
+      </c>
+      <c r="X17" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB17" s="6"/>
+    </row>
+    <row r="18" spans="1:29" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="20"/>
+      <c r="C18" s="21" t="str">
+        <f>ADDRESS($A$2,$B$1)</f>
+        <v>$AJ$14</v>
+      </c>
+      <c r="F18" s="30"/>
+      <c r="J18" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB18" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="33"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="34"/>
+      <c r="F19" s="35"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCED8DE2-31E8-411D-90A4-728EBCE13073}">
+  <dimension ref="A1:AJ19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.5" defaultRowHeight="28.35" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:36" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="23"/>
+      <c r="B1">
+        <f>MATCH("E",C1:CG1,0)+2</f>
+        <v>36</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <f>MATCH("E",A3:A50,0)+2</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C3" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C4" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C5" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C6" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" s="5"/>
+    </row>
+    <row r="7" spans="1:36" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C7" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" s="8"/>
+      <c r="K7" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="L7" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C8" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" s="6"/>
+    </row>
+    <row r="9" spans="1:36" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C9" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="J9" s="25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C10" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="14" spans="1:36" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="16"/>
+      <c r="C15" s="15">
+        <f>E15+F15*2</f>
+        <v>25</v>
+      </c>
+      <c r="D15" s="16"/>
+      <c r="E15">
+        <v>9</v>
+      </c>
+      <c r="F15" s="30">
+        <v>8</v>
+      </c>
+      <c r="J15" s="5"/>
+      <c r="X15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB15" s="5"/>
+    </row>
+    <row r="16" spans="1:36" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="20"/>
+      <c r="C16" s="21" cm="1">
+        <f t="array" aca="1" ref="C16" ca="1">SUMPRODUCT((仕様!$AK$11=$A$1:INDIRECT($C18))*ROW($A$1:INDIRECT($C18)))</f>
+        <v>5</v>
+      </c>
+      <c r="D16" s="21" cm="1">
+        <f t="array" aca="1" ref="D16" ca="1">SUMPRODUCT((仕様!$AK$11=$A$1:INDIRECT($C18))*COLUMN($A$1:INDIRECT($C18)))</f>
+        <v>5</v>
+      </c>
+      <c r="F16" s="30"/>
+      <c r="J16" s="8"/>
+      <c r="O16" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="R16" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="S16" t="s">
+        <v>0</v>
+      </c>
+      <c r="X16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB16" s="8"/>
+      <c r="AD16" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="19"/>
+      <c r="C17" s="21" cm="1">
+        <f t="array" aca="1" ref="C17" ca="1">SUMPRODUCT((仕様!$AK$12=$A$1:INDIRECT($C18))*ROW($A$1:INDIRECT($C18)))</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="21" cm="1">
+        <f t="array" aca="1" ref="D17" ca="1">SUMPRODUCT((仕様!$AK$12=$A$1:INDIRECT($C18))*COLUMN($A$1:INDIRECT($C18)))</f>
+        <v>0</v>
       </c>
       <c r="F17" s="30"/>
       <c r="G17" s="11" t="s">

--- a/Assets/Editor/Excel/blockstage.xlsx
+++ b/Assets/Editor/Excel/blockstage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\block\block2\Assets\Editor\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD923A41-1500-47B5-9175-7B9E1ACEA64B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CD266E1-08A6-4CB1-8C86-0D2EF3197262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="21" xr2:uid="{BD46CB91-CAB7-47A3-ABB8-3EC07075F154}"/>
+    <workbookView xWindow="-29550" yWindow="6615" windowWidth="18000" windowHeight="14715" firstSheet="11" activeTab="27" xr2:uid="{BD46CB91-CAB7-47A3-ABB8-3EC07075F154}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,6 +35,13 @@
     <sheet name="2-8「うえへ」" sheetId="27" r:id="rId20"/>
     <sheet name="3-1" sheetId="24" r:id="rId21"/>
     <sheet name="3-2" sheetId="28" r:id="rId22"/>
+    <sheet name="3-3" sheetId="30" r:id="rId23"/>
+    <sheet name="3-4" sheetId="31" r:id="rId24"/>
+    <sheet name="3-5" sheetId="32" r:id="rId25"/>
+    <sheet name="3-6" sheetId="29" r:id="rId26"/>
+    <sheet name="3-7" sheetId="34" r:id="rId27"/>
+    <sheet name="3-8「さーかす」" sheetId="35" r:id="rId28"/>
+    <sheet name="「.」" sheetId="33" r:id="rId29"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -79,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2259" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3307" uniqueCount="50">
   <si>
     <t>奈落</t>
     <rPh sb="0" eb="2">
@@ -2355,7 +2362,7 @@
   <dimension ref="A1:AM19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="T3" sqref="T3:AD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.5" defaultRowHeight="28.35" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4878,7 +4885,7 @@
   <dimension ref="A1:AI19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y16" sqref="Y16:AA18"/>
+      <selection activeCell="L12" sqref="G7:L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.5" defaultRowHeight="28.35" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5266,8 +5273,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7F9CE23-CF42-44D4-BB30-38DAFA8E6E95}">
   <dimension ref="A1:AE21"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8:N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.5" defaultRowHeight="28.35" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6483,7 +6490,7 @@
   <dimension ref="A1:AH31"/>
   <sheetViews>
     <sheetView zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="AA29" sqref="AA29"/>
+      <selection activeCell="G24" sqref="G18:R24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.5" defaultRowHeight="28.35" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -7016,7 +7023,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA986D01-453F-4167-9E98-0CE9A780F858}">
   <dimension ref="A1:AJ19"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AE19" sqref="AE19"/>
     </sheetView>
   </sheetViews>
@@ -7939,8 +7946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCED8DE2-31E8-411D-90A4-728EBCE13073}">
   <dimension ref="A1:AJ19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.5" defaultRowHeight="28.35" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -7960,6 +7967,9 @@
         <f>MATCH("E",A3:A50,0)+2</f>
         <v>14</v>
       </c>
+      <c r="AF2" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="3" spans="1:36" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C3" s="14" t="s">
@@ -7980,6 +7990,18 @@
       <c r="H3" s="14" t="s">
         <v>28</v>
       </c>
+      <c r="AD3" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE3" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF3" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG3" s="14" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="4" spans="1:36" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C4" s="14" t="s">
@@ -7988,6 +8010,12 @@
       <c r="H4" s="14" t="s">
         <v>28</v>
       </c>
+      <c r="U4" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC4" s="11" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="1:36" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C5" s="14" t="s">
@@ -7999,6 +8027,12 @@
       <c r="H5" s="14" t="s">
         <v>28</v>
       </c>
+      <c r="T5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB5" s="11" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="6" spans="1:36" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C6" s="14" t="s">
@@ -8020,6 +8054,21 @@
         <v>28</v>
       </c>
       <c r="J6" s="5"/>
+      <c r="R6" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="S6" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="W6" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA6" s="14" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="7" spans="1:36" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C7" s="14" t="s">
@@ -8035,6 +8084,15 @@
       <c r="L7" s="14" t="s">
         <v>28</v>
       </c>
+      <c r="N7" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="P7" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q7" s="11" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="8" spans="1:36" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C8" s="14" t="s">
@@ -8044,6 +8102,9 @@
         <v>28</v>
       </c>
       <c r="J8" s="6"/>
+      <c r="U8" s="14" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="9" spans="1:36" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C9" s="14" t="s">
@@ -8052,6 +8113,18 @@
       <c r="J9" s="25" t="s">
         <v>45</v>
       </c>
+      <c r="AD9" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE9" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF9" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG9" s="14" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="10" spans="1:36" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C10" s="14" t="s">
@@ -8062,6 +8135,110 @@
       </c>
       <c r="I10" s="14" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="J12" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K12" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="L12" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="M12" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="N12" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="O12" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="P12" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q12" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="R12" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="S12" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="T12" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="U12" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="V12" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="W12" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="X12" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y12" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z12" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA12" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB12" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC12" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD12" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE12" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF12" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG12" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH12" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI12" s="13" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:36" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
@@ -8086,14 +8263,14 @@
       <c r="B15" s="16"/>
       <c r="C15" s="15">
         <f>E15+F15*2</f>
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D15" s="16"/>
       <c r="E15">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F15" s="30">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J15" s="5"/>
       <c r="X15" s="2" t="s">
@@ -8149,11 +8326,11 @@
       <c r="B17" s="19"/>
       <c r="C17" s="21" cm="1">
         <f t="array" aca="1" ref="C17" ca="1">SUMPRODUCT((仕様!$AK$12=$A$1:INDIRECT($C18))*ROW($A$1:INDIRECT($C18)))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D17" s="21" cm="1">
         <f t="array" aca="1" ref="D17" ca="1">SUMPRODUCT((仕様!$AK$12=$A$1:INDIRECT($C18))*COLUMN($A$1:INDIRECT($C18)))</f>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="F17" s="30"/>
       <c r="G17" s="11" t="s">
@@ -8205,6 +8382,3875 @@
       </c>
       <c r="E19" s="34"/>
       <c r="F19" s="35"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{325053C3-4A81-4211-8D6B-B1120650080B}">
+  <dimension ref="A1:AJ19"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W12" sqref="W12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.5" defaultRowHeight="28.35" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:36" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="23"/>
+      <c r="B1">
+        <f>MATCH("E",C1:CG1,0)+2</f>
+        <v>36</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <f>MATCH("E",A3:A50,0)+2</f>
+        <v>14</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB2" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC2" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD2" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE2" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF2" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG2" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E3" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB3" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG3" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E4" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB4" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG4" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E5" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="H5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="N5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="AB5" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG5" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E6" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="N6" s="8"/>
+      <c r="W6" s="8"/>
+      <c r="AB6" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC6" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD6" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE6" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF6" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG6" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E7" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="AG7" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E8" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="N8" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="P8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q8" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="T8" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="U8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="W8" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="X8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG8" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E9" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q9" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="R9" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="S9" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="T9" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD9" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG9" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E10" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG10" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="14" spans="1:36" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="16"/>
+      <c r="C15" s="15">
+        <f>E15+F15*2</f>
+        <v>13</v>
+      </c>
+      <c r="D15" s="16"/>
+      <c r="E15">
+        <v>9</v>
+      </c>
+      <c r="F15" s="30">
+        <v>2</v>
+      </c>
+      <c r="J15" s="5"/>
+      <c r="X15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB15" s="5"/>
+    </row>
+    <row r="16" spans="1:36" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="20"/>
+      <c r="C16" s="21" cm="1">
+        <f t="array" aca="1" ref="C16" ca="1">SUMPRODUCT((仕様!$AK$11=$A$1:INDIRECT($C18))*ROW($A$1:INDIRECT($C18)))</f>
+        <v>5</v>
+      </c>
+      <c r="D16" s="21" cm="1">
+        <f t="array" aca="1" ref="D16" ca="1">SUMPRODUCT((仕様!$AK$11=$A$1:INDIRECT($C18))*COLUMN($A$1:INDIRECT($C18)))</f>
+        <v>30</v>
+      </c>
+      <c r="F16" s="30"/>
+      <c r="J16" s="8"/>
+      <c r="O16" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="R16" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="S16" t="s">
+        <v>0</v>
+      </c>
+      <c r="X16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB16" s="8"/>
+      <c r="AD16" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="19"/>
+      <c r="C17" s="21" cm="1">
+        <f t="array" aca="1" ref="C17" ca="1">SUMPRODUCT((仕様!$AK$12=$A$1:INDIRECT($C18))*ROW($A$1:INDIRECT($C18)))</f>
+        <v>5</v>
+      </c>
+      <c r="D17" s="21" cm="1">
+        <f t="array" aca="1" ref="D17" ca="1">SUMPRODUCT((仕様!$AK$12=$A$1:INDIRECT($C18))*COLUMN($A$1:INDIRECT($C18)))</f>
+        <v>8</v>
+      </c>
+      <c r="F17" s="30"/>
+      <c r="G17" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" t="s">
+        <v>1</v>
+      </c>
+      <c r="J17" s="6"/>
+      <c r="K17" t="s">
+        <v>2</v>
+      </c>
+      <c r="X17" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB17" s="6"/>
+    </row>
+    <row r="18" spans="1:29" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="20"/>
+      <c r="C18" s="21" t="str">
+        <f>ADDRESS($A$2,$B$1)</f>
+        <v>$AJ$14</v>
+      </c>
+      <c r="F18" s="30"/>
+      <c r="J18" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB18" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="33"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="34"/>
+      <c r="F19" s="35"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7297E798-7788-4F24-8C15-E61258FC032B}">
+  <dimension ref="A1:AJ20"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AG8" sqref="AG8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.5" defaultRowHeight="28.35" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:36" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="23"/>
+      <c r="B1">
+        <f>MATCH("E",C1:CG1,0)+2</f>
+        <v>36</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <f>MATCH("E",A3:A50,0)+2</f>
+        <v>15</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D3" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="R3" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="T3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="V3" s="5"/>
+    </row>
+    <row r="4" spans="1:36" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D4" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="O4" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="S4" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="T4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="V4" s="8"/>
+    </row>
+    <row r="5" spans="1:36" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D5" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="5"/>
+      <c r="O5" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="V5" s="6"/>
+      <c r="W5" s="5"/>
+    </row>
+    <row r="6" spans="1:36" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L6" s="8"/>
+      <c r="O6" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="V6" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="W6" s="8"/>
+    </row>
+    <row r="7" spans="1:36" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L7" s="6"/>
+      <c r="O7" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="W7" s="6"/>
+      <c r="X7" s="5"/>
+    </row>
+    <row r="8" spans="1:36" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L8" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="M8" s="5"/>
+      <c r="N8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="W8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="X8" s="8"/>
+      <c r="AB8" s="5"/>
+    </row>
+    <row r="9" spans="1:36" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="M9" s="8"/>
+      <c r="O9" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="X9" s="6"/>
+      <c r="AB9" s="8"/>
+    </row>
+    <row r="10" spans="1:36" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="M10" s="6"/>
+      <c r="O10" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="X10" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y10" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB10" s="6"/>
+    </row>
+    <row r="11" spans="1:36" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="M11" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="N11" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB11" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC11" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF11" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="N12" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="O12" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="P12" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC12" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD12" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE12" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF12" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B14" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="J14" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K14" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="L14" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="M14" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="N14" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="O14" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="P14" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q14" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="R14" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="S14" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="T14" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="U14" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="V14" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="W14" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="X14" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y14" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z14" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA14" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB14" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC14" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD14" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG14" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH14" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI14" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="16"/>
+      <c r="C16" s="15">
+        <f>E16+F16*2</f>
+        <v>11</v>
+      </c>
+      <c r="D16" s="16"/>
+      <c r="E16">
+        <v>9</v>
+      </c>
+      <c r="F16" s="30">
+        <v>1</v>
+      </c>
+      <c r="J16" s="5"/>
+      <c r="X16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB16" s="5"/>
+    </row>
+    <row r="17" spans="1:31" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="20"/>
+      <c r="C17" s="21" cm="1">
+        <f t="array" aca="1" ref="C17" ca="1">SUMPRODUCT((仕様!$AK$11=$A$1:INDIRECT($C19))*ROW($A$1:INDIRECT($C19)))</f>
+        <v>11</v>
+      </c>
+      <c r="D17" s="21" cm="1">
+        <f t="array" aca="1" ref="D17" ca="1">SUMPRODUCT((仕様!$AK$11=$A$1:INDIRECT($C19))*COLUMN($A$1:INDIRECT($C19)))</f>
+        <v>30</v>
+      </c>
+      <c r="F17" s="30"/>
+      <c r="J17" s="8"/>
+      <c r="O17" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="R17" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="S17" t="s">
+        <v>0</v>
+      </c>
+      <c r="X17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB17" s="8"/>
+      <c r="AD17" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="19"/>
+      <c r="C18" s="21" cm="1">
+        <f t="array" aca="1" ref="C18" ca="1">SUMPRODUCT((仕様!$AK$12=$A$1:INDIRECT($C19))*ROW($A$1:INDIRECT($C19)))</f>
+        <v>4</v>
+      </c>
+      <c r="D18" s="21" cm="1">
+        <f t="array" aca="1" ref="D18" ca="1">SUMPRODUCT((仕様!$AK$12=$A$1:INDIRECT($C19))*COLUMN($A$1:INDIRECT($C19)))</f>
+        <v>6</v>
+      </c>
+      <c r="F18" s="30"/>
+      <c r="G18" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" t="s">
+        <v>1</v>
+      </c>
+      <c r="J18" s="6"/>
+      <c r="K18" t="s">
+        <v>2</v>
+      </c>
+      <c r="X18" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB18" s="6"/>
+    </row>
+    <row r="19" spans="1:31" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="20"/>
+      <c r="C19" s="21" t="str">
+        <f>ADDRESS($A$2,$B$1)</f>
+        <v>$AJ$15</v>
+      </c>
+      <c r="F19" s="30"/>
+      <c r="J19" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB19" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="33"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="34"/>
+      <c r="F20" s="35"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{480707A8-02E2-4867-AF00-B795E3C99E3D}">
+  <dimension ref="A1:AJ20"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AF12" sqref="AF12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.5" defaultRowHeight="28.35" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:36" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="23"/>
+      <c r="B1">
+        <f>MATCH("E",C1:CG1,0)+2</f>
+        <v>36</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <f>MATCH("E",A3:A50,0)+2</f>
+        <v>15</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q2" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="R2" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="S2" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="T2" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="U2" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="V2" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="W2" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="X2" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y2" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z2" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA2" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB2" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC2" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD2" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE2" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF2" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG2" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I3" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="V3" s="5"/>
+      <c r="AB3" s="5"/>
+      <c r="AD3" s="5"/>
+      <c r="AG3" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I4" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="O4" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="V4" s="8"/>
+      <c r="W4" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y4" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB4" s="8"/>
+      <c r="AC4" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD4" s="8"/>
+      <c r="AG4" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I5" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="O5" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="P5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="V5" s="6"/>
+      <c r="W5" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB5" s="6"/>
+      <c r="AC5" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD5" s="6"/>
+      <c r="AG5" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="O6" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="V6" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="W6" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB6" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC6" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD6" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG6" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C7" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="L7" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="M7" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="N7" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="O7" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="P7" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q7" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="R7" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="S7" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="T7" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="U7" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="V7" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="W7" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="X7" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y7" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z7" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA7" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB7" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC7" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD7" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG7" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K8" s="5"/>
+      <c r="M8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="W8" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="X8" s="5"/>
+      <c r="AC8" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG8" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" s="8"/>
+      <c r="M9" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="P9" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="R9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="S9" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="U9" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="V9" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="W9" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="X9" s="8"/>
+      <c r="Y9" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z9" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA9" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE9" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF9" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG9" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K10" s="6"/>
+      <c r="W10" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="X10" s="6"/>
+      <c r="Z10" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC10" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD10" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K11" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="X11" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y11" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z11" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I12" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="J12" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="V12" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="W12" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="X12" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y12" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z12" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B14" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="J14" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K14" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="L14" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="M14" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="N14" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="O14" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="P14" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q14" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="R14" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="S14" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="T14" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="U14" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="V14" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="W14" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="X14" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y14" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z14" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA14" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB14" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC14" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD14" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE14" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF14" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG14" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH14" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI14" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="16"/>
+      <c r="C16" s="15">
+        <f>E16+F16*2</f>
+        <v>15</v>
+      </c>
+      <c r="D16" s="16"/>
+      <c r="E16">
+        <v>11</v>
+      </c>
+      <c r="F16" s="30">
+        <v>2</v>
+      </c>
+      <c r="J16" s="5"/>
+      <c r="X16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB16" s="5"/>
+    </row>
+    <row r="17" spans="1:31" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="20"/>
+      <c r="C17" s="21" cm="1">
+        <f t="array" aca="1" ref="C17" ca="1">SUMPRODUCT((仕様!$AK$11=$A$1:INDIRECT($C19))*ROW($A$1:INDIRECT($C19)))</f>
+        <v>6</v>
+      </c>
+      <c r="D17" s="21" cm="1">
+        <f t="array" aca="1" ref="D17" ca="1">SUMPRODUCT((仕様!$AK$11=$A$1:INDIRECT($C19))*COLUMN($A$1:INDIRECT($C19)))</f>
+        <v>4</v>
+      </c>
+      <c r="F17" s="30"/>
+      <c r="J17" s="8"/>
+      <c r="O17" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="R17" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="S17" t="s">
+        <v>0</v>
+      </c>
+      <c r="X17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB17" s="8"/>
+      <c r="AD17" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="19"/>
+      <c r="C18" s="21" cm="1">
+        <f t="array" aca="1" ref="C18" ca="1">SUMPRODUCT((仕様!$AK$12=$A$1:INDIRECT($C19))*ROW($A$1:INDIRECT($C19)))</f>
+        <v>6</v>
+      </c>
+      <c r="D18" s="21" cm="1">
+        <f t="array" aca="1" ref="D18" ca="1">SUMPRODUCT((仕様!$AK$12=$A$1:INDIRECT($C19))*COLUMN($A$1:INDIRECT($C19)))</f>
+        <v>11</v>
+      </c>
+      <c r="F18" s="30"/>
+      <c r="G18" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" t="s">
+        <v>1</v>
+      </c>
+      <c r="J18" s="6"/>
+      <c r="K18" t="s">
+        <v>2</v>
+      </c>
+      <c r="X18" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB18" s="6"/>
+    </row>
+    <row r="19" spans="1:31" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="20"/>
+      <c r="C19" s="21" t="str">
+        <f>ADDRESS($A$2,$B$1)</f>
+        <v>$AJ$15</v>
+      </c>
+      <c r="F19" s="30"/>
+      <c r="J19" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB19" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="33"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="34"/>
+      <c r="F20" s="35"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D767AD59-7ED7-43BE-A121-2A6F08CD657F}">
+  <dimension ref="A1:AJ19"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.5" defaultRowHeight="28.35" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:36" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="23"/>
+      <c r="B1">
+        <f>MATCH("E",C1:CG1,0)+2</f>
+        <v>36</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <f>MATCH("E",A3:A50,0)+2</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC3" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD3" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE3" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF3" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG3" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH3" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI3" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H4" s="5"/>
+      <c r="J4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="5"/>
+      <c r="L4" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="N4" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="O4" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="P4" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q4" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="R4" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="S4" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="T4" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="U4" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="V4" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="W4" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="X4" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y4" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z4" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA4" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB4" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC4" s="5"/>
+      <c r="AI4" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G5" s="5"/>
+      <c r="H5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="T5" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC5" s="8"/>
+      <c r="AD5" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE5" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF5" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG5" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI5" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G6" s="8"/>
+      <c r="H6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="N6" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="O6" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="P6" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q6" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="R6" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="T6" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="U6" s="5"/>
+      <c r="X6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z6" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC6" s="6"/>
+      <c r="AD6" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE6" s="5"/>
+      <c r="AF6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG6" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI6" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C7" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="T7" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="U7" s="8"/>
+      <c r="V7" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="W7" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="X7" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD7" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE7" s="8"/>
+      <c r="AF7" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG7" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI7" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C8" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="L8" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="N8" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="P8" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q8" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="R8" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="S8" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="U8" s="6"/>
+      <c r="V8" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC8" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD8" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE8" s="6"/>
+      <c r="AI8" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C9" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="L9" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="T9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="U9" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="V9" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD9" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE9" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI9" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L10" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="N10" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="O10" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="P10" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q10" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="R10" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="S10" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="T10" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="U10" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="V10" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD10" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE10" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF10" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG10" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH10" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI10" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L11" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="J12" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K12" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="L12" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="M12" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="N12" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="O12" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="P12" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q12" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="R12" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="S12" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="T12" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="U12" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="V12" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="W12" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="X12" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y12" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z12" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA12" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB12" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC12" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD12" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE12" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF12" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG12" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH12" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI12" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="14" spans="1:36" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="16"/>
+      <c r="C15" s="15">
+        <f>E15+F15*2</f>
+        <v>14</v>
+      </c>
+      <c r="D15" s="16"/>
+      <c r="E15">
+        <v>6</v>
+      </c>
+      <c r="F15" s="30">
+        <v>4</v>
+      </c>
+      <c r="J15" s="5"/>
+      <c r="X15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB15" s="5"/>
+    </row>
+    <row r="16" spans="1:36" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="20"/>
+      <c r="C16" s="21" cm="1">
+        <f t="array" aca="1" ref="C16" ca="1">SUMPRODUCT((仕様!$AK$11=$A$1:INDIRECT($C18))*ROW($A$1:INDIRECT($C18)))</f>
+        <v>8</v>
+      </c>
+      <c r="D16" s="21" cm="1">
+        <f t="array" aca="1" ref="D16" ca="1">SUMPRODUCT((仕様!$AK$11=$A$1:INDIRECT($C18))*COLUMN($A$1:INDIRECT($C18)))</f>
+        <v>5</v>
+      </c>
+      <c r="F16" s="30"/>
+      <c r="J16" s="8"/>
+      <c r="O16" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="R16" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="S16" t="s">
+        <v>0</v>
+      </c>
+      <c r="X16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB16" s="8"/>
+      <c r="AD16" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="19"/>
+      <c r="C17" s="21" cm="1">
+        <f t="array" aca="1" ref="C17" ca="1">SUMPRODUCT((仕様!$AK$12=$A$1:INDIRECT($C18))*ROW($A$1:INDIRECT($C18)))</f>
+        <v>6</v>
+      </c>
+      <c r="D17" s="21" cm="1">
+        <f t="array" aca="1" ref="D17" ca="1">SUMPRODUCT((仕様!$AK$12=$A$1:INDIRECT($C18))*COLUMN($A$1:INDIRECT($C18)))</f>
+        <v>32</v>
+      </c>
+      <c r="F17" s="30"/>
+      <c r="G17" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" t="s">
+        <v>1</v>
+      </c>
+      <c r="J17" s="6"/>
+      <c r="K17" t="s">
+        <v>2</v>
+      </c>
+      <c r="X17" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB17" s="6"/>
+    </row>
+    <row r="18" spans="1:29" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="20"/>
+      <c r="C18" s="21" t="str">
+        <f>ADDRESS($A$2,$B$1)</f>
+        <v>$AJ$14</v>
+      </c>
+      <c r="F18" s="30"/>
+      <c r="J18" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB18" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="33"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="34"/>
+      <c r="F19" s="35"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBB363BB-A043-4B54-AB40-FE8D306BB973}">
+  <dimension ref="A1:BC22"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.5" defaultRowHeight="28.35" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:55" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="23"/>
+      <c r="B1">
+        <f>MATCH("E",C1:CG1,0)+2</f>
+        <v>55</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:55" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <f>MATCH("E",A3:A50,0)+2</f>
+        <v>17</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AZ2" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="BA2" s="26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:55" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AW3" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AX3" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AY3" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AZ3" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:55" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="N4" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="O4" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="P4" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q4" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="R4" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="S4" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="T4" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="U4" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="V4" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="W4" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="X4" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y4" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z4" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA4" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB4" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC4" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD4" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE4" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF4" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG4" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AV4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AW4" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:55" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="T5" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y5" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AU5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AW5" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:55" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E6" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="L6" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="O6" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="P6" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="T6" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="V6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="X6" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y6" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z6" s="5"/>
+      <c r="AD6" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE6" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF6" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG6" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AP6" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AQ6" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AR6" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AT6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AW6" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:55" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E7" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="O7" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="T7" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="W7" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y7" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z7" s="8"/>
+      <c r="AA7" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB7" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC7" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN7" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AO7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AP7" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AW7" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:55" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E8" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="L8" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="T8" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="V8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="W8" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y8" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z8" s="6"/>
+      <c r="AC8" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AM8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN8" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AO8" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AW8" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:55" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E9" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="L9" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="O9" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="T9" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="U9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="W9" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y9" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z9" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB9" s="5"/>
+      <c r="AC9" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK9" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AL9" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AM9" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN9" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AW9" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:55" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E10" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="O10" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="V10" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="W10" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y10" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z10" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA10" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB10" s="8"/>
+      <c r="AC10" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AW10" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:55" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="O11" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="S11" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="T11" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="U11" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="V11" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="W11" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB11" s="6"/>
+      <c r="AC11" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AW11" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AX11" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AY11" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AZ11" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:55" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="O12" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q12" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="R12" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="S12" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="W12" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA12" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB12" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC12" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AW12" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:55" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="O13" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="P13" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q13" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="R13" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="S13" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="W13" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y13" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z13" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA13" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB13" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC13" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AW13" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AY13" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:55" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K14" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="L14" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="M14" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="N14" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="O14" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD14" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE14" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF14" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG14" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH14" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI14" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ14" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK14" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL14" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM14" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN14" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO14" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="AP14" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="AQ14" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="AR14" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="AS14" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="AT14" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="AU14" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="AV14" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="AW14" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AX14" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AY14" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AZ14" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="BA14" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:55" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="BA16" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="BB16" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="16"/>
+      <c r="C18" s="15">
+        <f>E18+F18*2</f>
+        <v>20</v>
+      </c>
+      <c r="D18" s="16"/>
+      <c r="E18">
+        <v>16</v>
+      </c>
+      <c r="F18" s="30">
+        <v>2</v>
+      </c>
+      <c r="J18" s="5"/>
+      <c r="X18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB18" s="5"/>
+    </row>
+    <row r="19" spans="1:31" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="20"/>
+      <c r="C19" s="21" cm="1">
+        <f t="array" aca="1" ref="C19" ca="1">SUMPRODUCT((仕様!$AK$11=$A$1:INDIRECT($C21))*ROW($A$1:INDIRECT($C21)))</f>
+        <v>4</v>
+      </c>
+      <c r="D19" s="21" cm="1">
+        <f t="array" aca="1" ref="D19" ca="1">SUMPRODUCT((仕様!$AK$11=$A$1:INDIRECT($C21))*COLUMN($A$1:INDIRECT($C21)))</f>
+        <v>4</v>
+      </c>
+      <c r="F19" s="30"/>
+      <c r="J19" s="8"/>
+      <c r="O19" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="R19" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="S19" t="s">
+        <v>0</v>
+      </c>
+      <c r="X19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB19" s="8"/>
+      <c r="AD19" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="19"/>
+      <c r="C20" s="21" cm="1">
+        <f t="array" aca="1" ref="C20" ca="1">SUMPRODUCT((仕様!$AK$12=$A$1:INDIRECT($C21))*ROW($A$1:INDIRECT($C21)))</f>
+        <v>13</v>
+      </c>
+      <c r="D20" s="21" cm="1">
+        <f t="array" aca="1" ref="D20" ca="1">SUMPRODUCT((仕様!$AK$12=$A$1:INDIRECT($C21))*COLUMN($A$1:INDIRECT($C21)))</f>
+        <v>51</v>
+      </c>
+      <c r="F20" s="30"/>
+      <c r="G20" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" t="s">
+        <v>1</v>
+      </c>
+      <c r="J20" s="6"/>
+      <c r="K20" t="s">
+        <v>2</v>
+      </c>
+      <c r="X20" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB20" s="6"/>
+    </row>
+    <row r="21" spans="1:31" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="20"/>
+      <c r="C21" s="21" t="str">
+        <f>ADDRESS($A$2,$B$1)</f>
+        <v>$BC$17</v>
+      </c>
+      <c r="F21" s="30"/>
+      <c r="J21" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB21" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="33"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="34"/>
+      <c r="F22" s="35"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5373AD1A-2A17-48C6-B1D4-A2BE180830FD}">
+  <dimension ref="A1:AN27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.5" defaultRowHeight="28.35" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:40" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="23"/>
+      <c r="B1">
+        <f>MATCH("E",C1:CG1,0)+2</f>
+        <v>40</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:40" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <f>MATCH("E",A3:A50,0)+2</f>
+        <v>22</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:40" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="P3" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q3" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="R3" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="S3" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:40" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="S4" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:40" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="S5" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:40" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="O6" s="5"/>
+      <c r="S6" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:40" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="M7" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="N7" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="O7" s="8"/>
+      <c r="S7" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="T7" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="U7" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="V7" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="X7" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y7" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z7" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA7" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG7" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:40" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="O8" s="6"/>
+      <c r="Q8" s="5"/>
+      <c r="S8" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="V8" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="X8" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG8" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:40" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="O9" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q9" s="8"/>
+      <c r="S9" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="V9" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="X9" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG9" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:40" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="O10" s="5"/>
+      <c r="Q10" s="6"/>
+      <c r="S10" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="V10" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="X10" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD10" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE10" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF10" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG10" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:40" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="O11" s="8"/>
+      <c r="Q11" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="S11" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="V11" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="X11" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC11" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD11" s="5"/>
+    </row>
+    <row r="12" spans="1:40" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="N12" s="5"/>
+      <c r="O12" s="6"/>
+      <c r="S12" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="V12" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="X12" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD12" s="8"/>
+    </row>
+    <row r="13" spans="1:40" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="N13" s="8"/>
+      <c r="O13" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="S13" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="V13" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="X13" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD13" s="6"/>
+    </row>
+    <row r="14" spans="1:40" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="N14" s="6"/>
+      <c r="P14" s="5"/>
+      <c r="S14" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="V14" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="X14" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD14" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF14" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:40" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="N15" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="P15" s="8"/>
+      <c r="S15" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="V15" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="X15" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE15" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF15" s="8"/>
+    </row>
+    <row r="16" spans="1:40" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="P16" s="6"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="U16" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="X16" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE16" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF16" s="6"/>
+    </row>
+    <row r="17" spans="1:39" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="P17" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="R17" s="8"/>
+      <c r="S17" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="T17" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="X17" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE17" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF17" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG17" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH17" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:39" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="R18" s="6"/>
+      <c r="X18" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE18" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF18" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG18" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH18" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI18" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AL18" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:39" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="R19" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="S19" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="T19" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="U19" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="V19" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="W19" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="X19" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:39" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="J21" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K21" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="L21" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="M21" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="N21" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="O21" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="P21" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q21" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="R21" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="S21" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="T21" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="U21" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="V21" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="W21" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="X21" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y21" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z21" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA21" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB21" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC21" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD21" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE21" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF21" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG21" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH21" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI21" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ21" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK21" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL21" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM21" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:39" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:39" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="16"/>
+      <c r="C23" s="15">
+        <f>E23+F23*2</f>
+        <v>12</v>
+      </c>
+      <c r="D23" s="16"/>
+      <c r="E23">
+        <v>10</v>
+      </c>
+      <c r="F23" s="30">
+        <v>1</v>
+      </c>
+      <c r="J23" s="5"/>
+      <c r="X23" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB23" s="5"/>
+    </row>
+    <row r="24" spans="1:39" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="20"/>
+      <c r="C24" s="21" cm="1">
+        <f t="array" aca="1" ref="C24" ca="1">SUMPRODUCT((仕様!$AK$11=$A$1:INDIRECT($C26))*ROW($A$1:INDIRECT($C26)))</f>
+        <v>17</v>
+      </c>
+      <c r="D24" s="21" cm="1">
+        <f t="array" aca="1" ref="D24" ca="1">SUMPRODUCT((仕様!$AK$11=$A$1:INDIRECT($C26))*COLUMN($A$1:INDIRECT($C26)))</f>
+        <v>34</v>
+      </c>
+      <c r="F24" s="30"/>
+      <c r="J24" s="8"/>
+      <c r="O24" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="R24" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="S24" t="s">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB24" s="8"/>
+      <c r="AD24" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:39" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="19"/>
+      <c r="C25" s="21" cm="1">
+        <f t="array" aca="1" ref="C25" ca="1">SUMPRODUCT((仕様!$AK$12=$A$1:INDIRECT($C26))*ROW($A$1:INDIRECT($C26)))</f>
+        <v>4</v>
+      </c>
+      <c r="D25" s="21" cm="1">
+        <f t="array" aca="1" ref="D25" ca="1">SUMPRODUCT((仕様!$AK$12=$A$1:INDIRECT($C26))*COLUMN($A$1:INDIRECT($C26)))</f>
+        <v>4</v>
+      </c>
+      <c r="F25" s="30"/>
+      <c r="G25" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H25" t="s">
+        <v>1</v>
+      </c>
+      <c r="J25" s="6"/>
+      <c r="K25" t="s">
+        <v>2</v>
+      </c>
+      <c r="X25" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB25" s="6"/>
+    </row>
+    <row r="26" spans="1:39" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" s="20"/>
+      <c r="C26" s="21" t="str">
+        <f>ADDRESS($A$2,$B$1)</f>
+        <v>$AN$22</v>
+      </c>
+      <c r="F26" s="30"/>
+      <c r="J26" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB26" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:39" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="33"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" s="34"/>
+      <c r="F27" s="35"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E99BD0FA-37DF-412D-91B4-44287BE24A19}">
+  <dimension ref="A1:AJ20"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.5" defaultRowHeight="28.35" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:36" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="23"/>
+      <c r="B1">
+        <f>MATCH("E",C1:CG1,0)+2</f>
+        <v>36</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <f>MATCH("E",A3:A50,0)+2</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Q8" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K9" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="L9" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="M9" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="N9" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="O9" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="P9" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q9" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="R9" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="S9" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="T9" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="U9" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="V9" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="W9" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F10" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="X10" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y10" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z10" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA10" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB10" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="15" spans="1:36" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="16"/>
+      <c r="C16" s="15">
+        <f>E16+F16*2</f>
+        <v>15</v>
+      </c>
+      <c r="D16" s="16"/>
+      <c r="E16">
+        <v>11</v>
+      </c>
+      <c r="F16" s="30">
+        <v>2</v>
+      </c>
+      <c r="J16" s="5"/>
+      <c r="X16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB16" s="5"/>
+    </row>
+    <row r="17" spans="1:31" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="20"/>
+      <c r="C17" s="21" cm="1">
+        <f t="array" aca="1" ref="C17" ca="1">SUMPRODUCT((仕様!$AK$11=$A$1:INDIRECT($C19))*ROW($A$1:INDIRECT($C19)))</f>
+        <v>8</v>
+      </c>
+      <c r="D17" s="21" cm="1">
+        <f t="array" aca="1" ref="D17" ca="1">SUMPRODUCT((仕様!$AK$11=$A$1:INDIRECT($C19))*COLUMN($A$1:INDIRECT($C19)))</f>
+        <v>17</v>
+      </c>
+      <c r="F17" s="30"/>
+      <c r="J17" s="8"/>
+      <c r="O17" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="R17" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="S17" t="s">
+        <v>0</v>
+      </c>
+      <c r="X17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB17" s="8"/>
+      <c r="AD17" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="19"/>
+      <c r="C18" s="21" cm="1">
+        <f t="array" aca="1" ref="C18" ca="1">SUMPRODUCT((仕様!$AK$12=$A$1:INDIRECT($C19))*ROW($A$1:INDIRECT($C19)))</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="21" cm="1">
+        <f t="array" aca="1" ref="D18" ca="1">SUMPRODUCT((仕様!$AK$12=$A$1:INDIRECT($C19))*COLUMN($A$1:INDIRECT($C19)))</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="30"/>
+      <c r="G18" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" t="s">
+        <v>1</v>
+      </c>
+      <c r="J18" s="6"/>
+      <c r="K18" t="s">
+        <v>2</v>
+      </c>
+      <c r="X18" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB18" s="6"/>
+    </row>
+    <row r="19" spans="1:31" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="20"/>
+      <c r="C19" s="21" t="str">
+        <f>ADDRESS($A$2,$B$1)</f>
+        <v>$AJ$15</v>
+      </c>
+      <c r="F19" s="30"/>
+      <c r="J19" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB19" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="33"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="34"/>
+      <c r="F20" s="35"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -8826,7 +12872,7 @@
   <dimension ref="A1:AG19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="G8" sqref="G8:N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.5" defaultRowHeight="28.35" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10010,7 +14056,7 @@
   <dimension ref="A1:AK18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="X11" sqref="Q3:X11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.5" defaultRowHeight="28.35" customHeight="1" x14ac:dyDescent="0.4"/>
